--- a/Resources/Test Generator Resources/config.xlsx
+++ b/Resources/Test Generator Resources/config.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation\2) StreamLineQA Resources\Test Generator Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\Resources\Test Generator Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83EF805-3A97-4143-95A0-930DAFB7BAC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C037A5-B32E-4140-B601-4BFCB3359AFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config File Example" sheetId="1" r:id="rId1"/>
-    <sheet name="license key" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -121,44 +120,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter your email address here. This is mandatory even for the trial version</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter your license key here. You can leave this blank if you're on the trial version</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>url</t>
   </si>
@@ -180,18 +143,12 @@
   <si>
     <t>requirements url</t>
   </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>License Key</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -219,17 +176,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -266,18 +212,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,7 +454,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -520,10 +462,10 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
@@ -546,7 +488,7 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4"/>
@@ -576,7 +518,7 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4"/>
@@ -606,7 +548,7 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4"/>
@@ -636,7 +578,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1"/>
@@ -28145,51 +28087,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>